--- a/data/trans_bre/P57B_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P57B_R-Dificultad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.080546311482725</v>
+        <v>-1.689621910947364</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.03939974074033356</v>
+        <v>-0.05595288647588936</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.28814376659726</v>
+        <v>8.911597886050711</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.3797383232306322</v>
+        <v>0.3830492984541722</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>5.321025707975359</v>
+        <v>5.321025707975361</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.5125521981458563</v>
+        <v>0.5125521981458565</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.579045805013664</v>
+        <v>2.353960113451421</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2091528090965728</v>
+        <v>0.1918531459536759</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.856782867390641</v>
+        <v>7.816294862741318</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.864960092978026</v>
+        <v>0.8560999771035036</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.519806516374615</v>
+        <v>3.519806516374616</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.6116934366769259</v>
+        <v>0.611693436676926</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.46774035369835</v>
+        <v>1.504910432222526</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.2133509202304088</v>
+        <v>0.2208420952072861</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.410396188278268</v>
+        <v>5.456577512890984</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.127970514092842</v>
+        <v>1.143582223522588</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.893347583485785</v>
+        <v>2.893347583485786</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.4546882569598354</v>
+        <v>0.4546882569598356</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4179130942423268</v>
+        <v>0.5679606624650348</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.03922946706026691</v>
+        <v>0.07245537065272027</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.268816999100838</v>
+        <v>5.154116250778663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.002954475577778</v>
+        <v>0.94951584090076</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.311756710305716</v>
+        <v>3.135635049184143</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.304738721167649</v>
+        <v>0.2804622429994466</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.133760159009861</v>
+        <v>5.964976848200532</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6644012030785037</v>
+        <v>0.6285754549912848</v>
       </c>
     </row>
     <row r="19">
